--- a/assets/cloud_costs.xlsx
+++ b/assets/cloud_costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Yes</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>What is the average task duration (hours)?</t>
-  </si>
-  <si>
     <t>Answer ID</t>
   </si>
   <si>
@@ -98,6 +95,21 @@
   </si>
   <si>
     <t>What is your expected throughput (MBps)?</t>
+  </si>
+  <si>
+    <t>EC2 Instance Cost per hour</t>
+  </si>
+  <si>
+    <t>EKS Nodes</t>
+  </si>
+  <si>
+    <t>EC2 Data Transfer Cost per GB</t>
+  </si>
+  <si>
+    <t>EKS Cluster Cost per hour</t>
+  </si>
+  <si>
+    <t>What is the average task duration per month (hours)?</t>
   </si>
 </sst>
 </file>
@@ -178,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -198,6 +210,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,13 +521,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -580,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -616,10 +632,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -630,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -641,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -674,10 +690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,34 +702,37 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -733,10 +752,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -756,10 +778,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -767,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -779,10 +804,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -802,16 +830,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -819,15 +850,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,15 +870,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>4.0480000000000002E-2</v>
@@ -854,7 +886,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
         <v>4.4450000000000002E-3</v>
@@ -862,15 +894,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.1</v>
@@ -878,10 +910,34 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
